--- a/jyx2/Assets/Mods/JYX2/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/物品.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="17805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17805"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -412,9 +417,6 @@
     <t>内伤别怕，用后可将人轻易举起</t>
   </si>
   <si>
-    <t>人蔘</t>
-  </si>
-  <si>
     <t>人</t>
   </si>
   <si>
@@ -611,9 +613,6 @@
   </si>
   <si>
     <t>珍贵异果，可提高内力最大值</t>
-  </si>
-  <si>
-    <t>千年人蔘</t>
   </si>
   <si>
     <t>千年物，提高生命及内力最大值</t>
@@ -1584,7 +1583,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t></t>
     </r>
@@ -1602,7 +1601,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t></t>
     </r>
@@ -1979,18 +1978,20 @@
   <si>
     <t>最后</t>
   </si>
+  <si>
+    <t>人参</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>千年人参</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2001,7 +2002,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2010,358 +2011,40 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2369,267 +2052,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2643,66 +2084,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3031,31 +2429,30 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="$A82:$XFD82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="50" max="50" width="28.4159292035398" style="1" customWidth="1"/>
+    <col min="50" max="50" width="28.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3201,7 +2598,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -3353,7 +2750,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -3503,7 +2900,7 @@
       </c>
       <c r="AX4" s="6"/>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -3653,7 +3050,7 @@
       </c>
       <c r="AX5" s="6"/>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -3803,7 +3200,7 @@
       </c>
       <c r="AX6" s="6"/>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -3953,7 +3350,7 @@
       </c>
       <c r="AX7" s="6"/>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -4103,7 +3500,7 @@
       </c>
       <c r="AX8" s="6"/>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -4253,7 +3650,7 @@
       </c>
       <c r="AX9" s="6"/>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -4403,7 +3800,7 @@
       </c>
       <c r="AX10" s="6"/>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -4553,7 +3950,7 @@
       </c>
       <c r="AX11" s="6"/>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -4703,7 +4100,7 @@
       </c>
       <c r="AX12" s="6"/>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -4853,7 +4250,7 @@
       </c>
       <c r="AX13" s="6"/>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -5003,18 +4400,18 @@
       </c>
       <c r="AX14" s="6"/>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="E15" s="3">
         <v>-1</v>
@@ -5153,18 +4550,18 @@
       </c>
       <c r="AX15" s="6"/>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="E16" s="3">
         <v>-1</v>
@@ -5303,18 +4700,18 @@
       </c>
       <c r="AX16" s="6"/>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="E17" s="3">
         <v>-1</v>
@@ -5453,18 +4850,18 @@
       </c>
       <c r="AX17" s="6"/>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="E18" s="3">
         <v>-1</v>
@@ -5603,18 +5000,18 @@
       </c>
       <c r="AX18" s="6"/>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="E19" s="3">
         <v>-1</v>
@@ -5753,18 +5150,18 @@
       </c>
       <c r="AX19" s="6"/>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="E20" s="3">
         <v>-1</v>
@@ -5903,18 +5300,18 @@
       </c>
       <c r="AX20" s="6"/>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="E21" s="3">
         <v>-1</v>
@@ -6053,18 +5450,18 @@
       </c>
       <c r="AX21" s="6"/>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="E22" s="3">
         <v>-1</v>
@@ -6203,18 +5600,18 @@
       </c>
       <c r="AX22" s="6"/>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="E23" s="3">
         <v>-1</v>
@@ -6353,18 +5750,18 @@
       </c>
       <c r="AX23" s="6"/>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E24" s="3">
         <v>-1</v>
@@ -6503,18 +5900,18 @@
       </c>
       <c r="AX24" s="6"/>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="E25" s="3">
         <v>-1</v>
@@ -6653,18 +6050,18 @@
       </c>
       <c r="AX25" s="6"/>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="E26" s="3">
         <v>-1</v>
@@ -6803,18 +6200,18 @@
       </c>
       <c r="AX26" s="6"/>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="E27" s="3">
         <v>-1</v>
@@ -6953,18 +6350,18 @@
       </c>
       <c r="AX27" s="6"/>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="E28" s="3">
         <v>-1</v>
@@ -7103,18 +6500,18 @@
       </c>
       <c r="AX28" s="6"/>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="E29" s="3">
         <v>-1</v>
@@ -7253,18 +6650,18 @@
       </c>
       <c r="AX29" s="6"/>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="E30" s="3">
         <v>-1</v>
@@ -7403,18 +6800,18 @@
       </c>
       <c r="AX30" s="6"/>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="E31" s="3">
         <v>-1</v>
@@ -7553,18 +6950,18 @@
       </c>
       <c r="AX31" s="6"/>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="E32" s="3">
         <v>-1</v>
@@ -7703,18 +7100,18 @@
       </c>
       <c r="AX32" s="6"/>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="E33" s="3">
         <v>-1</v>
@@ -7853,18 +7250,18 @@
       </c>
       <c r="AX33" s="6"/>
     </row>
-    <row r="34" spans="1:50">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="E34" s="3">
         <v>-1</v>
@@ -8003,18 +7400,18 @@
       </c>
       <c r="AX34" s="6"/>
     </row>
-    <row r="35" spans="1:50">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="E35" s="3">
         <v>-1</v>
@@ -8153,18 +7550,18 @@
       </c>
       <c r="AX35" s="6"/>
     </row>
-    <row r="36" spans="1:50">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="E36" s="3">
         <v>-1</v>
@@ -8303,18 +7700,18 @@
       </c>
       <c r="AX36" s="6"/>
     </row>
-    <row r="37" spans="1:50">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="E37" s="3">
         <v>-1</v>
@@ -8453,18 +7850,18 @@
       </c>
       <c r="AX37" s="6"/>
     </row>
-    <row r="38" spans="1:50">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>34</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>199</v>
+      <c r="B38" s="7" t="s">
+        <v>639</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E38" s="3">
         <v>-1</v>
@@ -8603,18 +8000,18 @@
       </c>
       <c r="AX38" s="6"/>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="E39" s="3">
         <v>-1</v>
@@ -8753,18 +8150,18 @@
       </c>
       <c r="AX39" s="6"/>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="E40" s="3">
         <v>-1</v>
@@ -8903,18 +8300,18 @@
       </c>
       <c r="AX40" s="6"/>
     </row>
-    <row r="41" spans="1:50">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E41" s="3">
         <v>-1</v>
@@ -9053,18 +8450,18 @@
       </c>
       <c r="AX41" s="6"/>
     </row>
-    <row r="42" spans="1:50">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="E42" s="3">
         <v>-1</v>
@@ -9203,18 +8600,18 @@
       </c>
       <c r="AX42" s="6"/>
     </row>
-    <row r="43" spans="1:50">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="E43" s="3">
         <v>-1</v>
@@ -9353,18 +8750,18 @@
       </c>
       <c r="AX43" s="6"/>
     </row>
-    <row r="44" spans="1:50">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E44" s="3">
         <v>-1</v>
@@ -9503,18 +8900,18 @@
       </c>
       <c r="AX44" s="6"/>
     </row>
-    <row r="45" spans="1:50">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="E45" s="3">
         <v>-1</v>
@@ -9653,18 +9050,18 @@
       </c>
       <c r="AX45" s="6"/>
     </row>
-    <row r="46" spans="1:50">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="E46" s="3">
         <v>-1</v>
@@ -9803,18 +9200,18 @@
       </c>
       <c r="AX46" s="6"/>
     </row>
-    <row r="47" spans="1:50">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="E47" s="3">
         <v>-1</v>
@@ -9953,18 +9350,18 @@
       </c>
       <c r="AX47" s="6"/>
     </row>
-    <row r="48" spans="1:50">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="E48" s="3">
         <v>-1</v>
@@ -10103,18 +9500,18 @@
       </c>
       <c r="AX48" s="6"/>
     </row>
-    <row r="49" spans="1:50">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="E49" s="3">
         <v>-1</v>
@@ -10253,18 +9650,18 @@
       </c>
       <c r="AX49" s="6"/>
     </row>
-    <row r="50" spans="1:50">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="E50" s="3">
         <v>-1</v>
@@ -10403,18 +9800,18 @@
       </c>
       <c r="AX50" s="6"/>
     </row>
-    <row r="51" spans="1:50">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>47</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="E51" s="3">
         <v>-1</v>
@@ -10553,18 +9950,18 @@
       </c>
       <c r="AX51" s="6"/>
     </row>
-    <row r="52" spans="1:50">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>48</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="E52" s="3">
         <v>-1</v>
@@ -10702,21 +10099,21 @@
         <v>171</v>
       </c>
       <c r="AX52" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:50">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="E53" s="3">
         <v>-1</v>
@@ -10854,21 +10251,21 @@
         <v>171</v>
       </c>
       <c r="AX53" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="54" spans="1:50">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="E54" s="3">
         <v>-1</v>
@@ -11006,21 +10403,21 @@
         <v>171</v>
       </c>
       <c r="AX54" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="55" spans="1:50">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>51</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="E55" s="3">
         <v>-1</v>
@@ -11158,21 +10555,21 @@
         <v>171</v>
       </c>
       <c r="AX55" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="56" spans="1:50">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="E56" s="3">
         <v>-1</v>
@@ -11310,21 +10707,21 @@
         <v>171</v>
       </c>
       <c r="AX56" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:50">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="E57" s="3">
         <v>-1</v>
@@ -11462,21 +10859,21 @@
         <v>171</v>
       </c>
       <c r="AX57" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:50">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>54</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="E58" s="3">
         <v>11</v>
@@ -11615,18 +11012,18 @@
       </c>
       <c r="AX58" s="6"/>
     </row>
-    <row r="59" spans="1:50">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="E59" s="3">
         <v>6</v>
@@ -11765,18 +11162,18 @@
       </c>
       <c r="AX59" s="6"/>
     </row>
-    <row r="60" spans="1:50">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E60" s="3">
         <v>15</v>
@@ -11915,18 +11312,18 @@
       </c>
       <c r="AX60" s="6"/>
     </row>
-    <row r="61" spans="1:50">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="E61" s="3">
         <v>16</v>
@@ -12065,18 +11462,18 @@
       </c>
       <c r="AX61" s="6"/>
     </row>
-    <row r="62" spans="1:50">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="E62" s="3">
         <v>20</v>
@@ -12215,18 +11612,18 @@
       </c>
       <c r="AX62" s="6"/>
     </row>
-    <row r="63" spans="1:50">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="E63" s="3">
         <v>18</v>
@@ -12365,18 +11762,18 @@
       </c>
       <c r="AX63" s="6"/>
     </row>
-    <row r="64" spans="1:50">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="E64" s="3">
         <v>23</v>
@@ -12515,18 +11912,18 @@
       </c>
       <c r="AX64" s="6"/>
     </row>
-    <row r="65" spans="1:50">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>61</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="E65" s="3">
         <v>24</v>
@@ -12665,18 +12062,18 @@
       </c>
       <c r="AX65" s="6"/>
     </row>
-    <row r="66" spans="1:50">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>62</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="E66" s="3">
         <v>25</v>
@@ -12815,18 +12212,18 @@
       </c>
       <c r="AX66" s="6"/>
     </row>
-    <row r="67" spans="1:50">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>63</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="E67" s="3">
         <v>29</v>
@@ -12965,18 +12362,18 @@
       </c>
       <c r="AX67" s="6"/>
     </row>
-    <row r="68" spans="1:50">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="E68" s="3">
         <v>28</v>
@@ -13115,18 +12512,18 @@
       </c>
       <c r="AX68" s="6"/>
     </row>
-    <row r="69" spans="1:50">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>65</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="E69" s="3">
         <v>27</v>
@@ -13265,18 +12662,18 @@
       </c>
       <c r="AX69" s="6"/>
     </row>
-    <row r="70" spans="1:50">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>66</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="E70" s="3">
         <v>30</v>
@@ -13415,18 +12812,18 @@
       </c>
       <c r="AX70" s="6"/>
     </row>
-    <row r="71" spans="1:50">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>67</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="E71" s="3">
         <v>89</v>
@@ -13565,18 +12962,18 @@
       </c>
       <c r="AX71" s="6"/>
     </row>
-    <row r="72" spans="1:50">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>68</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="E72" s="3">
         <v>45</v>
@@ -13715,18 +13112,18 @@
       </c>
       <c r="AX72" s="6"/>
     </row>
-    <row r="73" spans="1:50">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>69</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E73" s="3">
         <v>46</v>
@@ -13865,18 +13262,18 @@
       </c>
       <c r="AX73" s="6"/>
     </row>
-    <row r="74" spans="1:50">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E74" s="3">
         <v>53</v>
@@ -14015,18 +13412,18 @@
       </c>
       <c r="AX74" s="6"/>
     </row>
-    <row r="75" spans="1:50">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>71</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="E75" s="3">
         <v>47</v>
@@ -14165,18 +13562,18 @@
       </c>
       <c r="AX75" s="6"/>
     </row>
-    <row r="76" spans="1:50">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>72</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="E76" s="3">
         <v>54</v>
@@ -14315,18 +13712,18 @@
       </c>
       <c r="AX76" s="6"/>
     </row>
-    <row r="77" spans="1:50">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>73</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="E77" s="3">
         <v>49</v>
@@ -14465,18 +13862,18 @@
       </c>
       <c r="AX77" s="6"/>
     </row>
-    <row r="78" spans="1:50">
+    <row r="78" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>74</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="E78" s="3">
         <v>55</v>
@@ -14615,18 +14012,18 @@
       </c>
       <c r="AX78" s="6"/>
     </row>
-    <row r="79" spans="1:50">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>75</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="E79" s="3">
         <v>58</v>
@@ -14765,18 +14162,18 @@
       </c>
       <c r="AX79" s="6"/>
     </row>
-    <row r="80" spans="1:50">
+    <row r="80" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>76</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="E80" s="3">
         <v>59</v>
@@ -14915,18 +14312,18 @@
       </c>
       <c r="AX80" s="6"/>
     </row>
-    <row r="81" spans="1:50">
+    <row r="81" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>77</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="E81" s="3">
         <v>57</v>
@@ -15065,18 +14462,18 @@
       </c>
       <c r="AX81" s="6"/>
     </row>
-    <row r="82" spans="1:50">
+    <row r="82" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>78</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="E82" s="3">
         <v>60</v>
@@ -15215,18 +14612,18 @@
       </c>
       <c r="AX82" s="6"/>
     </row>
-    <row r="83" spans="1:50">
+    <row r="83" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>79</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="E83" s="3">
         <v>61</v>
@@ -15365,18 +14762,18 @@
       </c>
       <c r="AX83" s="6"/>
     </row>
-    <row r="84" spans="1:50">
+    <row r="84" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>80</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="E84" s="3">
         <v>63</v>
@@ -15515,18 +14912,18 @@
       </c>
       <c r="AX84" s="6"/>
     </row>
-    <row r="85" spans="1:50">
+    <row r="85" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>81</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="E85" s="3">
         <v>66</v>
@@ -15665,18 +15062,18 @@
       </c>
       <c r="AX85" s="6"/>
     </row>
-    <row r="86" spans="1:50">
+    <row r="86" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>82</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="E86" s="3">
         <v>65</v>
@@ -15815,18 +15212,18 @@
       </c>
       <c r="AX86" s="6"/>
     </row>
-    <row r="87" spans="1:50">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>83</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="E87" s="3">
         <v>64</v>
@@ -15965,18 +15362,18 @@
       </c>
       <c r="AX87" s="6"/>
     </row>
-    <row r="88" spans="1:50">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>84</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E88" s="3">
         <v>67</v>
@@ -16115,18 +15512,18 @@
       </c>
       <c r="AX88" s="6"/>
     </row>
-    <row r="89" spans="1:50">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>85</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="E89" s="3">
         <v>68</v>
@@ -16265,18 +15662,18 @@
       </c>
       <c r="AX89" s="6"/>
     </row>
-    <row r="90" spans="1:50">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>86</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E90" s="3">
         <v>77</v>
@@ -16415,18 +15812,18 @@
       </c>
       <c r="AX90" s="6"/>
     </row>
-    <row r="91" spans="1:50">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>87</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="E91" s="3">
         <v>78</v>
@@ -16565,18 +15962,18 @@
       </c>
       <c r="AX91" s="6"/>
     </row>
-    <row r="92" spans="1:50">
+    <row r="92" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>88</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="E92" s="3">
         <v>-1</v>
@@ -16715,18 +16112,18 @@
       </c>
       <c r="AX92" s="6"/>
     </row>
-    <row r="93" spans="1:50">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>89</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E93" s="3">
         <v>-1</v>
@@ -16864,21 +16261,21 @@
         <v>172</v>
       </c>
       <c r="AX93" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:50">
+    <row r="94" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>90</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="E94" s="3">
         <v>-1</v>
@@ -17017,18 +16414,18 @@
       </c>
       <c r="AX94" s="6"/>
     </row>
-    <row r="95" spans="1:50">
+    <row r="95" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>91</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="E95" s="3">
         <v>-1</v>
@@ -17167,18 +16564,18 @@
       </c>
       <c r="AX95" s="6"/>
     </row>
-    <row r="96" spans="1:50">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>92</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="E96" s="3">
         <v>-1</v>
@@ -17317,18 +16714,18 @@
       </c>
       <c r="AX96" s="6"/>
     </row>
-    <row r="97" spans="1:50">
+    <row r="97" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>93</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="E97" s="3">
         <v>-1</v>
@@ -17467,18 +16864,18 @@
       </c>
       <c r="AX97" s="6"/>
     </row>
-    <row r="98" spans="1:50">
+    <row r="98" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>94</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E98" s="3">
         <v>-1</v>
@@ -17617,18 +17014,18 @@
       </c>
       <c r="AX98" s="6"/>
     </row>
-    <row r="99" spans="1:50">
+    <row r="99" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>95</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E99" s="3">
         <v>92</v>
@@ -17767,18 +17164,18 @@
       </c>
       <c r="AX99" s="6"/>
     </row>
-    <row r="100" spans="1:50">
+    <row r="100" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>96</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="E100" s="3">
         <v>-1</v>
@@ -17917,18 +17314,18 @@
       </c>
       <c r="AX100" s="6"/>
     </row>
-    <row r="101" spans="1:50">
+    <row r="101" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>97</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E101" s="3">
         <v>-1</v>
@@ -18067,18 +17464,18 @@
       </c>
       <c r="AX101" s="6"/>
     </row>
-    <row r="102" spans="1:50">
+    <row r="102" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>98</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E102" s="3">
         <v>-1</v>
@@ -18217,18 +17614,18 @@
       </c>
       <c r="AX102" s="6"/>
     </row>
-    <row r="103" spans="1:50">
+    <row r="103" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>99</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E103" s="3">
         <v>-1</v>
@@ -18367,18 +17764,18 @@
       </c>
       <c r="AX103" s="6"/>
     </row>
-    <row r="104" spans="1:50">
+    <row r="104" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>100</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E104" s="3">
         <v>-1</v>
@@ -18517,18 +17914,18 @@
       </c>
       <c r="AX104" s="6"/>
     </row>
-    <row r="105" spans="1:50">
+    <row r="105" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>101</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E105" s="3">
         <v>-1</v>
@@ -18667,18 +18064,18 @@
       </c>
       <c r="AX105" s="6"/>
     </row>
-    <row r="106" spans="1:50">
+    <row r="106" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>102</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E106" s="3">
         <v>-1</v>
@@ -18817,18 +18214,18 @@
       </c>
       <c r="AX106" s="6"/>
     </row>
-    <row r="107" spans="1:50">
+    <row r="107" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>103</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="E107" s="3">
         <v>-1</v>
@@ -18967,18 +18364,18 @@
       </c>
       <c r="AX107" s="6"/>
     </row>
-    <row r="108" spans="1:50">
+    <row r="108" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>104</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>400</v>
       </c>
       <c r="E108" s="3">
         <v>-1</v>
@@ -19117,18 +18514,18 @@
       </c>
       <c r="AX108" s="6"/>
     </row>
-    <row r="109" spans="1:50">
+    <row r="109" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>105</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="E109" s="3">
         <v>-1</v>
@@ -19267,18 +18664,18 @@
       </c>
       <c r="AX109" s="6"/>
     </row>
-    <row r="110" spans="1:50">
+    <row r="110" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>106</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E110" s="3">
         <v>-1</v>
@@ -19417,18 +18814,18 @@
       </c>
       <c r="AX110" s="6"/>
     </row>
-    <row r="111" spans="1:50">
+    <row r="111" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>107</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="E111" s="3">
         <v>-1</v>
@@ -19567,18 +18964,18 @@
       </c>
       <c r="AX111" s="6"/>
     </row>
-    <row r="112" spans="1:50">
+    <row r="112" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>108</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E112" s="3">
         <v>-1</v>
@@ -19717,18 +19114,18 @@
       </c>
       <c r="AX112" s="6"/>
     </row>
-    <row r="113" spans="1:50">
+    <row r="113" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>109</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="E113" s="3">
         <v>-1</v>
@@ -19867,18 +19264,18 @@
       </c>
       <c r="AX113" s="6"/>
     </row>
-    <row r="114" spans="1:50">
+    <row r="114" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>110</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E114" s="3">
         <v>-1</v>
@@ -20017,18 +19414,18 @@
       </c>
       <c r="AX114" s="6"/>
     </row>
-    <row r="115" spans="1:50">
+    <row r="115" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>111</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>418</v>
       </c>
       <c r="E115" s="3">
         <v>-1</v>
@@ -20167,18 +19564,18 @@
       </c>
       <c r="AX115" s="6"/>
     </row>
-    <row r="116" spans="1:50">
+    <row r="116" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>112</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E116" s="3">
         <v>-1</v>
@@ -20317,18 +19714,18 @@
       </c>
       <c r="AX116" s="6"/>
     </row>
-    <row r="117" spans="1:50">
+    <row r="117" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>113</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E117" s="3">
         <v>-1</v>
@@ -20467,18 +19864,18 @@
       </c>
       <c r="AX117" s="6"/>
     </row>
-    <row r="118" spans="1:50">
+    <row r="118" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>114</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E118" s="3">
         <v>-1</v>
@@ -20617,18 +20014,18 @@
       </c>
       <c r="AX118" s="6"/>
     </row>
-    <row r="119" spans="1:50">
+    <row r="119" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>115</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E119" s="3">
         <v>-1</v>
@@ -20767,18 +20164,18 @@
       </c>
       <c r="AX119" s="6"/>
     </row>
-    <row r="120" spans="1:50">
+    <row r="120" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>116</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>429</v>
       </c>
       <c r="E120" s="3">
         <v>-1</v>
@@ -20917,18 +20314,18 @@
       </c>
       <c r="AX120" s="6"/>
     </row>
-    <row r="121" spans="1:50">
+    <row r="121" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>117</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>430</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="E121" s="3">
         <v>-1</v>
@@ -21067,18 +20464,18 @@
       </c>
       <c r="AX121" s="6"/>
     </row>
-    <row r="122" spans="1:50">
+    <row r="122" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>118</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E122" s="3">
         <v>-1</v>
@@ -21217,18 +20614,18 @@
       </c>
       <c r="AX122" s="6"/>
     </row>
-    <row r="123" spans="1:50">
+    <row r="123" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>119</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E123" s="3">
         <v>-1</v>
@@ -21367,18 +20764,18 @@
       </c>
       <c r="AX123" s="6"/>
     </row>
-    <row r="124" spans="1:50">
+    <row r="124" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>120</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="E124" s="3">
         <v>-1</v>
@@ -21517,18 +20914,18 @@
       </c>
       <c r="AX124" s="6"/>
     </row>
-    <row r="125" spans="1:50">
+    <row r="125" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>121</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>442</v>
       </c>
       <c r="E125" s="3">
         <v>-1</v>
@@ -21667,18 +21064,18 @@
       </c>
       <c r="AX125" s="6"/>
     </row>
-    <row r="126" spans="1:50">
+    <row r="126" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>122</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E126" s="3">
         <v>-1</v>
@@ -21817,18 +21214,18 @@
       </c>
       <c r="AX126" s="6"/>
     </row>
-    <row r="127" spans="1:50">
+    <row r="127" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>123</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="E127" s="3">
         <v>-1</v>
@@ -21967,18 +21364,18 @@
       </c>
       <c r="AX127" s="6"/>
     </row>
-    <row r="128" spans="1:50">
+    <row r="128" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>124</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="E128" s="3">
         <v>-1</v>
@@ -22117,18 +21514,18 @@
       </c>
       <c r="AX128" s="6"/>
     </row>
-    <row r="129" spans="1:50">
+    <row r="129" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>125</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>453</v>
       </c>
       <c r="E129" s="3">
         <v>-1</v>
@@ -22267,18 +21664,18 @@
       </c>
       <c r="AX129" s="6"/>
     </row>
-    <row r="130" spans="1:50">
+    <row r="130" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>126</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="E130" s="3">
         <v>-1</v>
@@ -22417,18 +21814,18 @@
       </c>
       <c r="AX130" s="6"/>
     </row>
-    <row r="131" spans="1:50">
+    <row r="131" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>127</v>
       </c>
       <c r="B131" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="E131" s="3">
         <v>-1</v>
@@ -22567,18 +21964,18 @@
       </c>
       <c r="AX131" s="6"/>
     </row>
-    <row r="132" spans="1:50">
+    <row r="132" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>128</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E132" s="3">
         <v>-1</v>
@@ -22717,18 +22114,18 @@
       </c>
       <c r="AX132" s="6"/>
     </row>
-    <row r="133" spans="1:50">
+    <row r="133" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>129</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>464</v>
       </c>
       <c r="E133" s="3">
         <v>-1</v>
@@ -22867,18 +22264,18 @@
       </c>
       <c r="AX133" s="6"/>
     </row>
-    <row r="134" spans="1:50">
+    <row r="134" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>130</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E134" s="3">
         <v>-1</v>
@@ -23017,18 +22414,18 @@
       </c>
       <c r="AX134" s="6"/>
     </row>
-    <row r="135" spans="1:50">
+    <row r="135" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>131</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E135" s="3">
         <v>-1</v>
@@ -23167,18 +22564,18 @@
       </c>
       <c r="AX135" s="6"/>
     </row>
-    <row r="136" spans="1:50">
+    <row r="136" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>132</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>471</v>
       </c>
       <c r="E136" s="3">
         <v>-1</v>
@@ -23317,18 +22714,18 @@
       </c>
       <c r="AX136" s="6"/>
     </row>
-    <row r="137" spans="1:50">
+    <row r="137" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>133</v>
       </c>
       <c r="B137" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>474</v>
       </c>
       <c r="E137" s="3">
         <v>-1</v>
@@ -23467,18 +22864,18 @@
       </c>
       <c r="AX137" s="6"/>
     </row>
-    <row r="138" spans="1:50">
+    <row r="138" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>134</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>477</v>
       </c>
       <c r="E138" s="3">
         <v>-1</v>
@@ -23617,18 +23014,18 @@
       </c>
       <c r="AX138" s="6"/>
     </row>
-    <row r="139" spans="1:50">
+    <row r="139" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>135</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="E139" s="3">
         <v>-1</v>
@@ -23767,18 +23164,18 @@
       </c>
       <c r="AX139" s="6"/>
     </row>
-    <row r="140" spans="1:50">
+    <row r="140" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>136</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="E140" s="3">
         <v>-1</v>
@@ -23917,18 +23314,18 @@
       </c>
       <c r="AX140" s="6"/>
     </row>
-    <row r="141" spans="1:50">
+    <row r="141" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>137</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E141" s="3">
         <v>-1</v>
@@ -24067,18 +23464,18 @@
       </c>
       <c r="AX141" s="6"/>
     </row>
-    <row r="142" spans="1:50">
+    <row r="142" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>138</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="E142" s="3">
         <v>-1</v>
@@ -24217,18 +23614,18 @@
       </c>
       <c r="AX142" s="6"/>
     </row>
-    <row r="143" spans="1:50">
+    <row r="143" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>139</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E143" s="3">
         <v>-1</v>
@@ -24367,18 +23764,18 @@
       </c>
       <c r="AX143" s="6"/>
     </row>
-    <row r="144" spans="1:50">
+    <row r="144" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>140</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E144" s="3">
         <v>-1</v>
@@ -24517,18 +23914,18 @@
       </c>
       <c r="AX144" s="6"/>
     </row>
-    <row r="145" spans="1:50">
+    <row r="145" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>141</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E145" s="3">
         <v>-1</v>
@@ -24667,18 +24064,18 @@
       </c>
       <c r="AX145" s="6"/>
     </row>
-    <row r="146" spans="1:50">
+    <row r="146" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>142</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E146" s="3">
         <v>-1</v>
@@ -24817,18 +24214,18 @@
       </c>
       <c r="AX146" s="6"/>
     </row>
-    <row r="147" spans="1:50">
+    <row r="147" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>143</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>497</v>
       </c>
       <c r="E147" s="3">
         <v>-1</v>
@@ -24967,18 +24364,18 @@
       </c>
       <c r="AX147" s="6"/>
     </row>
-    <row r="148" spans="1:50">
+    <row r="148" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>144</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>500</v>
       </c>
       <c r="E148" s="3">
         <v>-1</v>
@@ -25117,18 +24514,18 @@
       </c>
       <c r="AX148" s="6"/>
     </row>
-    <row r="149" spans="1:50">
+    <row r="149" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>145</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E149" s="3">
         <v>-1</v>
@@ -25267,18 +24664,18 @@
       </c>
       <c r="AX149" s="6"/>
     </row>
-    <row r="150" spans="1:50">
+    <row r="150" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>146</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E150" s="3">
         <v>-1</v>
@@ -25417,18 +24814,18 @@
       </c>
       <c r="AX150" s="6"/>
     </row>
-    <row r="151" spans="1:50">
+    <row r="151" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>147</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E151" s="3">
         <v>-1</v>
@@ -25567,18 +24964,18 @@
       </c>
       <c r="AX151" s="6"/>
     </row>
-    <row r="152" spans="1:50">
+    <row r="152" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>148</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E152" s="3">
         <v>-1</v>
@@ -25717,18 +25114,18 @@
       </c>
       <c r="AX152" s="6"/>
     </row>
-    <row r="153" spans="1:50">
+    <row r="153" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>149</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E153" s="3">
         <v>-1</v>
@@ -25867,18 +25264,18 @@
       </c>
       <c r="AX153" s="6"/>
     </row>
-    <row r="154" spans="1:50">
+    <row r="154" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>150</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E154" s="3">
         <v>-1</v>
@@ -26017,18 +25414,18 @@
       </c>
       <c r="AX154" s="6"/>
     </row>
-    <row r="155" spans="1:50">
+    <row r="155" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>151</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E155" s="3">
         <v>-1</v>
@@ -26167,18 +25564,18 @@
       </c>
       <c r="AX155" s="6"/>
     </row>
-    <row r="156" spans="1:50">
+    <row r="156" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>152</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E156" s="3">
         <v>-1</v>
@@ -26317,18 +25714,18 @@
       </c>
       <c r="AX156" s="6"/>
     </row>
-    <row r="157" spans="1:50">
+    <row r="157" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>153</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E157" s="3">
         <v>-1</v>
@@ -26467,18 +25864,18 @@
       </c>
       <c r="AX157" s="6"/>
     </row>
-    <row r="158" spans="1:50">
+    <row r="158" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>154</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E158" s="3">
         <v>-1</v>
@@ -26617,18 +26014,18 @@
       </c>
       <c r="AX158" s="6"/>
     </row>
-    <row r="159" spans="1:50">
+    <row r="159" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>155</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E159" s="3">
         <v>-1</v>
@@ -26767,18 +26164,18 @@
       </c>
       <c r="AX159" s="6"/>
     </row>
-    <row r="160" spans="1:50">
+    <row r="160" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>156</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E160" s="3">
         <v>-1</v>
@@ -26917,18 +26314,18 @@
       </c>
       <c r="AX160" s="6"/>
     </row>
-    <row r="161" spans="1:50">
+    <row r="161" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>157</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E161" s="3">
         <v>-1</v>
@@ -27067,18 +26464,18 @@
       </c>
       <c r="AX161" s="6"/>
     </row>
-    <row r="162" spans="1:50">
+    <row r="162" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>158</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E162" s="3">
         <v>-1</v>
@@ -27217,18 +26614,18 @@
       </c>
       <c r="AX162" s="6"/>
     </row>
-    <row r="163" spans="1:50">
+    <row r="163" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>159</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D163" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>531</v>
       </c>
       <c r="E163" s="3">
         <v>-1</v>
@@ -27367,18 +26764,18 @@
       </c>
       <c r="AX163" s="6"/>
     </row>
-    <row r="164" spans="1:50">
+    <row r="164" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>160</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>534</v>
       </c>
       <c r="E164" s="3">
         <v>-1</v>
@@ -27517,18 +26914,18 @@
       </c>
       <c r="AX164" s="6"/>
     </row>
-    <row r="165" spans="1:50">
+    <row r="165" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>161</v>
       </c>
       <c r="B165" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>537</v>
       </c>
       <c r="E165" s="3">
         <v>-1</v>
@@ -27667,18 +27064,18 @@
       </c>
       <c r="AX165" s="6"/>
     </row>
-    <row r="166" spans="1:50">
+    <row r="166" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>162</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="E166" s="3">
         <v>-1</v>
@@ -27817,18 +27214,18 @@
       </c>
       <c r="AX166" s="6"/>
     </row>
-    <row r="167" spans="1:50">
+    <row r="167" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>163</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>541</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>543</v>
       </c>
       <c r="E167" s="3">
         <v>-1</v>
@@ -27967,18 +27364,18 @@
       </c>
       <c r="AX167" s="6"/>
     </row>
-    <row r="168" spans="1:50">
+    <row r="168" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>164</v>
       </c>
       <c r="B168" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D168" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>546</v>
       </c>
       <c r="E168" s="3">
         <v>-1</v>
@@ -28117,18 +27514,18 @@
       </c>
       <c r="AX168" s="6"/>
     </row>
-    <row r="169" spans="1:50">
+    <row r="169" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>165</v>
       </c>
       <c r="B169" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D169" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>549</v>
       </c>
       <c r="E169" s="3">
         <v>-1</v>
@@ -28267,18 +27664,18 @@
       </c>
       <c r="AX169" s="6"/>
     </row>
-    <row r="170" spans="1:50">
+    <row r="170" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>166</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D170" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>552</v>
       </c>
       <c r="E170" s="3">
         <v>-1</v>
@@ -28417,18 +27814,18 @@
       </c>
       <c r="AX170" s="6"/>
     </row>
-    <row r="171" spans="1:50">
+    <row r="171" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>167</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E171" s="3">
         <v>-1</v>
@@ -28567,18 +27964,18 @@
       </c>
       <c r="AX171" s="6"/>
     </row>
-    <row r="172" spans="1:50">
+    <row r="172" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>168</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E172" s="3">
         <v>-1</v>
@@ -28717,18 +28114,18 @@
       </c>
       <c r="AX172" s="6"/>
     </row>
-    <row r="173" spans="1:50">
+    <row r="173" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>169</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E173" s="3">
         <v>-1</v>
@@ -28867,18 +28264,18 @@
       </c>
       <c r="AX173" s="6"/>
     </row>
-    <row r="174" spans="1:50">
+    <row r="174" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>170</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E174" s="3">
         <v>-1</v>
@@ -29017,18 +28414,18 @@
       </c>
       <c r="AX174" s="6"/>
     </row>
-    <row r="175" spans="1:50">
+    <row r="175" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>171</v>
       </c>
       <c r="B175" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D175" s="3" t="s">
         <v>561</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>563</v>
       </c>
       <c r="E175" s="3">
         <v>-1</v>
@@ -29167,18 +28564,18 @@
       </c>
       <c r="AX175" s="6"/>
     </row>
-    <row r="176" spans="1:50">
+    <row r="176" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>172</v>
       </c>
       <c r="B176" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>566</v>
       </c>
       <c r="E176" s="3">
         <v>-1</v>
@@ -29317,18 +28714,18 @@
       </c>
       <c r="AX176" s="6"/>
     </row>
-    <row r="177" spans="1:50">
+    <row r="177" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>173</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D177" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>569</v>
       </c>
       <c r="E177" s="3">
         <v>-1</v>
@@ -29467,18 +28864,18 @@
       </c>
       <c r="AX177" s="6"/>
     </row>
-    <row r="178" spans="1:50">
+    <row r="178" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>174</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D178" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="E178" s="3">
         <v>-1</v>
@@ -29617,18 +29014,18 @@
       </c>
       <c r="AX178" s="6"/>
     </row>
-    <row r="179" spans="1:50">
+    <row r="179" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>175</v>
       </c>
       <c r="B179" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>575</v>
       </c>
       <c r="E179" s="3">
         <v>-1</v>
@@ -29767,18 +29164,18 @@
       </c>
       <c r="AX179" s="6"/>
     </row>
-    <row r="180" spans="1:50">
+    <row r="180" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>176</v>
       </c>
       <c r="B180" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D180" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>578</v>
       </c>
       <c r="E180" s="3">
         <v>-1</v>
@@ -29917,18 +29314,18 @@
       </c>
       <c r="AX180" s="6"/>
     </row>
-    <row r="181" spans="1:50">
+    <row r="181" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>177</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D181" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>581</v>
       </c>
       <c r="E181" s="3">
         <v>-1</v>
@@ -30067,18 +29464,18 @@
       </c>
       <c r="AX181" s="6"/>
     </row>
-    <row r="182" spans="1:50">
+    <row r="182" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>178</v>
       </c>
       <c r="B182" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>584</v>
       </c>
       <c r="E182" s="3">
         <v>-1</v>
@@ -30217,18 +29614,18 @@
       </c>
       <c r="AX182" s="6"/>
     </row>
-    <row r="183" spans="1:50">
+    <row r="183" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>179</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>587</v>
       </c>
       <c r="E183" s="3">
         <v>-1</v>
@@ -30367,18 +29764,18 @@
       </c>
       <c r="AX183" s="6"/>
     </row>
-    <row r="184" spans="1:50">
+    <row r="184" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>180</v>
       </c>
       <c r="B184" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>590</v>
       </c>
       <c r="E184" s="3">
         <v>-1</v>
@@ -30517,18 +29914,18 @@
       </c>
       <c r="AX184" s="6"/>
     </row>
-    <row r="185" spans="1:50">
+    <row r="185" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>181</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E185" s="3">
         <v>-1</v>
@@ -30667,18 +30064,18 @@
       </c>
       <c r="AX185" s="6"/>
     </row>
-    <row r="186" spans="1:50">
+    <row r="186" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>182</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>595</v>
       </c>
       <c r="E186" s="3">
         <v>-1</v>
@@ -30817,18 +30214,18 @@
       </c>
       <c r="AX186" s="6"/>
     </row>
-    <row r="187" spans="1:50">
+    <row r="187" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>183</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D187" s="3" t="s">
         <v>596</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="E187" s="3">
         <v>-1</v>
@@ -30967,18 +30364,18 @@
       </c>
       <c r="AX187" s="6"/>
     </row>
-    <row r="188" spans="1:50">
+    <row r="188" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>184</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D188" s="3" t="s">
         <v>599</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>601</v>
       </c>
       <c r="E188" s="3">
         <v>-1</v>
@@ -31117,18 +30514,18 @@
       </c>
       <c r="AX188" s="6"/>
     </row>
-    <row r="189" spans="1:50">
+    <row r="189" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>185</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>602</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>604</v>
       </c>
       <c r="E189" s="3">
         <v>-1</v>
@@ -31267,18 +30664,18 @@
       </c>
       <c r="AX189" s="6"/>
     </row>
-    <row r="190" spans="1:50">
+    <row r="190" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>186</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D190" s="3" t="s">
         <v>605</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>607</v>
       </c>
       <c r="E190" s="3">
         <v>-1</v>
@@ -31417,18 +30814,18 @@
       </c>
       <c r="AX190" s="6"/>
     </row>
-    <row r="191" spans="1:50">
+    <row r="191" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>187</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E191" s="3">
         <v>-1</v>
@@ -31567,18 +30964,18 @@
       </c>
       <c r="AX191" s="6"/>
     </row>
-    <row r="192" spans="1:50">
+    <row r="192" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>188</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E192" s="3">
         <v>-1</v>
@@ -31717,18 +31114,18 @@
       </c>
       <c r="AX192" s="6"/>
     </row>
-    <row r="193" spans="1:50">
+    <row r="193" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>189</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D193" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>614</v>
       </c>
       <c r="E193" s="3">
         <v>-1</v>
@@ -31867,18 +31264,18 @@
       </c>
       <c r="AX193" s="6"/>
     </row>
-    <row r="194" spans="1:50">
+    <row r="194" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>190</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>617</v>
       </c>
       <c r="E194" s="3">
         <v>-1</v>
@@ -32017,18 +31414,18 @@
       </c>
       <c r="AX194" s="6"/>
     </row>
-    <row r="195" spans="1:50">
+    <row r="195" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>191</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E195" s="3">
         <v>-1</v>
@@ -32167,18 +31564,18 @@
       </c>
       <c r="AX195" s="6"/>
     </row>
-    <row r="196" spans="1:50">
+    <row r="196" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>192</v>
       </c>
       <c r="B196" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D196" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>622</v>
       </c>
       <c r="E196" s="3">
         <v>-1</v>
@@ -32317,18 +31714,18 @@
       </c>
       <c r="AX196" s="6"/>
     </row>
-    <row r="197" spans="1:50">
+    <row r="197" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>193</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D197" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>625</v>
       </c>
       <c r="E197" s="3">
         <v>-1</v>
@@ -32467,18 +31864,18 @@
       </c>
       <c r="AX197" s="6"/>
     </row>
-    <row r="198" spans="1:50">
+    <row r="198" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>194</v>
       </c>
       <c r="B198" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D198" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>628</v>
       </c>
       <c r="E198" s="3">
         <v>-1</v>
@@ -32617,18 +32014,18 @@
       </c>
       <c r="AX198" s="6"/>
     </row>
-    <row r="199" spans="1:50">
+    <row r="199" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>195</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E199" s="3">
         <v>-1</v>
@@ -32767,18 +32164,18 @@
       </c>
       <c r="AX199" s="6"/>
     </row>
-    <row r="200" spans="1:50">
+    <row r="200" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>196</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D200" s="3" t="s">
         <v>631</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>633</v>
       </c>
       <c r="E200" s="3">
         <v>-1</v>
@@ -32917,18 +32314,18 @@
       </c>
       <c r="AX200" s="6"/>
     </row>
-    <row r="201" spans="1:50">
+    <row r="201" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>197</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D201" s="3" t="s">
         <v>634</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>636</v>
       </c>
       <c r="E201" s="3">
         <v>-1</v>
@@ -33067,18 +32464,18 @@
       </c>
       <c r="AX201" s="6"/>
     </row>
-    <row r="202" spans="1:50">
+    <row r="202" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>198</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E202" s="3">
         <v>-1</v>
@@ -33217,18 +32614,18 @@
       </c>
       <c r="AX202" s="6"/>
     </row>
-    <row r="203" spans="1:50">
+    <row r="203" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>199</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E203" s="3">
         <v>-1</v>
@@ -33368,8 +32765,8 @@
       <c r="AX203" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>